--- a/Book1Done.xlsx
+++ b/Book1Done.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +50,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +75,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,7 +440,7 @@
   </sheetPr>
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1172,6 +1185,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1Done.xlsx
+++ b/Book1Done.xlsx
@@ -817,7 +817,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40-28-01-D2609MX</t>
+          <t>40-10-01-D2609MX</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40-28-01-D2609MX</t>
+          <t>40-18-01-D2609MX</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40-36-01-D2609MX</t>
+          <t>40-18-01-D2609MX</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40-36-01-D2609MX</t>
+          <t>40-18-01-D2609MX</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/Book1Done.xlsx
+++ b/Book1Done.xlsx
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2500</v>
+        <v>2530</v>
       </c>
       <c r="C4" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -901,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2500</v>
+        <v>2530</v>
       </c>
       <c r="C5" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2500</v>
+        <v>2530</v>
       </c>
       <c r="C6" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1093,10 +1093,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2500</v>
+        <v>2530</v>
       </c>
       <c r="C7" t="n">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>

--- a/Book1Done.xlsx
+++ b/Book1Done.xlsx
@@ -869,6 +869,11 @@
           <t>173X26878_D6_S0</t>
         </is>
       </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>po sklejeniu na 28mm sciac na 2530 x 2530</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>3121X</t>
@@ -963,6 +968,11 @@
       <c r="W5" t="inlineStr">
         <is>
           <t>173X26878_D6_S0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>po sklejeniu na 28mm sciac na 2530 x 2530</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">

--- a/Book1Done.xlsx
+++ b/Book1Done.xlsx
@@ -871,7 +871,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>po sklejeniu na 28mm sciac na 2530 x 2530</t>
+          <t>po sklejeniu na 28mm sciąć na 2530 x 610</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>po sklejeniu na 28mm sciac na 2530 x 2530</t>
+          <t>po sklejeniu na 28mm sciąć na 2530 x 610</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">

--- a/Book1Done.xlsx
+++ b/Book1Done.xlsx
@@ -1071,6 +1071,11 @@
           <t>173X26878_D6_S0</t>
         </is>
       </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>po sklejeniu na 36mm sciąć na 2530 x 610</t>
+        </is>
+      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>3121X</t>
@@ -1165,6 +1170,11 @@
       <c r="W7" t="inlineStr">
         <is>
           <t>173X26878_D6_S0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>po sklejeniu na 36mm sciąć na 2530 x 610</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
